--- a/data/manual/2020_matches.xlsx
+++ b/data/manual/2020_matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\Euro-2024-Prediction\data\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2344A324-E651-44A5-8DC6-EB255E581ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329BEBE-C911-48B2-AD43-7DADC19AF07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{27DF62E8-910F-4EF6-9B99-89321392CC8D}"/>
+    <workbookView xWindow="51495" yWindow="4290" windowWidth="38610" windowHeight="15345" xr2:uid="{27DF62E8-910F-4EF6-9B99-89321392CC8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
   <si>
     <t>Turkey </t>
   </si>
@@ -80,9 +80,6 @@
     <t>1–0</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>team1</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>team2</t>
   </si>
   <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>Denmark </t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t> Denmark</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
     <t>Austria </t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t> Netherlands</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>England </t>
   </si>
   <si>
@@ -194,9 +182,6 @@
     <t> England</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>Poland </t>
   </si>
   <si>
@@ -224,9 +209,6 @@
     <t> Spain</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Hungary </t>
   </si>
   <si>
@@ -255,9 +237,6 @@
   </si>
   <si>
     <t> Hungary</t>
-  </si>
-  <si>
-    <t>F</t>
   </si>
   <si>
     <t>0–4</t>
@@ -660,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183ABF59-3DBD-44B9-875B-F4827549A1B9}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,17 +651,15 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -695,9 +672,6 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,9 +684,6 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -725,9 +696,6 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,9 +708,6 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -755,9 +720,6 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -770,458 +732,365 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
         <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s">
-        <v>30</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
         <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D36" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E37" s="2"/>
     </row>
@@ -1230,10 +1099,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1241,51 +1110,51 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B40" t="s">
         <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -1293,24 +1162,24 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,15 +1190,15 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1337,24 +1206,24 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1365,18 +1234,18 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C51" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1387,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/manual/2020_matches.xlsx
+++ b/data/manual/2020_matches.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnn\Desktop\Euro-2024-Prediction\data\manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8329BEBE-C911-48B2-AD43-7DADC19AF07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED42CD5A-598B-4F1D-97E3-70BAB6F7F153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51495" yWindow="4290" windowWidth="38610" windowHeight="15345" xr2:uid="{27DF62E8-910F-4EF6-9B99-89321392CC8D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{27DF62E8-910F-4EF6-9B99-89321392CC8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="77">
   <si>
     <t>Turkey </t>
   </si>
@@ -246,6 +246,27 @@
   </si>
   <si>
     <t>3–3</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -639,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183ABF59-3DBD-44B9-875B-F4827549A1B9}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +680,9 @@
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,6 +695,9 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -684,6 +710,9 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -696,6 +725,9 @@
       <c r="C4" t="s">
         <v>7</v>
       </c>
+      <c r="D4" t="s">
+        <v>71</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -708,6 +740,9 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
+      <c r="D5" t="s">
+        <v>71</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -720,6 +755,9 @@
       <c r="C6" t="s">
         <v>12</v>
       </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -732,6 +770,9 @@
       <c r="C7" t="s">
         <v>7</v>
       </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -744,6 +785,9 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -756,6 +800,9 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -768,6 +815,9 @@
       <c r="C10" t="s">
         <v>21</v>
       </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -780,6 +830,9 @@
       <c r="C11" t="s">
         <v>24</v>
       </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,6 +845,9 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -804,6 +860,9 @@
       <c r="C13" t="s">
         <v>24</v>
       </c>
+      <c r="D13" t="s">
+        <v>72</v>
+      </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -816,6 +875,9 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -828,6 +890,9 @@
       <c r="C15" t="s">
         <v>32</v>
       </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,6 +905,9 @@
       <c r="C16" t="s">
         <v>29</v>
       </c>
+      <c r="D16" t="s">
+        <v>73</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -852,6 +920,9 @@
       <c r="C17" t="s">
         <v>36</v>
       </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -864,6 +935,9 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,6 +950,9 @@
       <c r="C19" t="s">
         <v>36</v>
       </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -888,6 +965,9 @@
       <c r="C20" t="s">
         <v>40</v>
       </c>
+      <c r="D20" t="s">
+        <v>74</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -900,6 +980,9 @@
       <c r="C21" t="s">
         <v>42</v>
       </c>
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -912,6 +995,9 @@
       <c r="C22" t="s">
         <v>42</v>
       </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -924,6 +1010,9 @@
       <c r="C23" t="s">
         <v>45</v>
       </c>
+      <c r="D23" t="s">
+        <v>74</v>
+      </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -936,6 +1025,9 @@
       <c r="C24" t="s">
         <v>45</v>
       </c>
+      <c r="D24" t="s">
+        <v>74</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,6 +1040,9 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -960,6 +1055,9 @@
       <c r="C26" t="s">
         <v>49</v>
       </c>
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -972,6 +1070,9 @@
       <c r="C27" t="s">
         <v>51</v>
       </c>
+      <c r="D27" t="s">
+        <v>75</v>
+      </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -984,6 +1085,9 @@
       <c r="C28" t="s">
         <v>49</v>
       </c>
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -996,6 +1100,9 @@
       <c r="C29" t="s">
         <v>53</v>
       </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1008,6 +1115,9 @@
       <c r="C30" t="s">
         <v>56</v>
       </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1020,6 +1130,9 @@
       <c r="C31" t="s">
         <v>53</v>
       </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1032,6 +1145,9 @@
       <c r="C32" t="s">
         <v>58</v>
       </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
       <c r="E32" s="2"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1044,6 +1160,9 @@
       <c r="C33" t="s">
         <v>60</v>
       </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1056,6 +1175,9 @@
       <c r="C34" t="s">
         <v>61</v>
       </c>
+      <c r="D34" t="s">
+        <v>76</v>
+      </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1068,6 +1190,9 @@
       <c r="C35" t="s">
         <v>60</v>
       </c>
+      <c r="D35" t="s">
+        <v>76</v>
+      </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,6 +1205,9 @@
       <c r="C36" t="s">
         <v>61</v>
       </c>
+      <c r="D36" t="s">
+        <v>76</v>
+      </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1091,6 +1219,9 @@
       </c>
       <c r="C37" t="s">
         <v>66</v>
+      </c>
+      <c r="D37" t="s">
+        <v>76</v>
       </c>
       <c r="E37" s="2"/>
     </row>
